--- a/Indicadores/Censo 2013/Hogares.xlsx
+++ b/Indicadores/Censo 2013/Hogares.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{9BF9283E-F64E-4800-8470-7A022E70CE32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{9BF9283E-F64E-4800-8470-7A022E70CE32}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -7512,7 +7512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E428F7-1533-46DA-8E7E-6687A5DE7B45}">
   <dimension ref="A1:BA300"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:AF1"/>
     </sheetView>
   </sheetViews>
@@ -55088,7 +55088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3E8E4A-4426-434E-B67B-EBC4BF5F5100}">
   <dimension ref="A1:AB300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -78136,8 +78136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31935613-F8AB-4E6D-AF5B-71C7C4492905}">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5546875" defaultRowHeight="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
